--- a/src/Backup.xlsx
+++ b/src/Backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN\Desktop\biblioteca\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3349E7A0-6990-4365-BB74-5AACD8F1DA34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620E17F0-20E6-4487-A22F-00DF5037A069}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{994D8DDC-EBF4-4D42-962A-0443776868B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{994D8DDC-EBF4-4D42-962A-0443776868B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>nombre1</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>genero3</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800E4429-2554-44B8-9F66-C1DF68669CEF}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +435,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +448,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -456,8 +465,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -469,6 +481,9 @@
       </c>
       <c r="D3" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/Backup.xlsx
+++ b/src/Backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN\Desktop\biblioteca\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620E17F0-20E6-4487-A22F-00DF5037A069}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C15B30-3739-419A-9DDF-738C75D8E6DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{994D8DDC-EBF4-4D42-962A-0443776868B0}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{994D8DDC-EBF4-4D42-962A-0443776868B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,36 +33,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
-    <t>nombre1</t>
-  </si>
-  <si>
-    <t>descripcion1</t>
-  </si>
-  <si>
     <t>autor1</t>
   </si>
   <si>
     <t>genero1</t>
   </si>
   <si>
-    <t>nombre2</t>
-  </si>
-  <si>
-    <t>descripcion2</t>
-  </si>
-  <si>
     <t>autor2</t>
   </si>
   <si>
     <t>genero2</t>
   </si>
   <si>
-    <t>nombre3</t>
-  </si>
-  <si>
-    <t>descripcion3</t>
-  </si>
-  <si>
     <t>autor3</t>
   </si>
   <si>
@@ -73,6 +55,24 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>descripcion11</t>
+  </si>
+  <si>
+    <t>descripcion21</t>
+  </si>
+  <si>
+    <t>descripcion31</t>
+  </si>
+  <si>
+    <t>nombre12</t>
+  </si>
+  <si>
+    <t>nombre22</t>
+  </si>
+  <si>
+    <t>nombre32</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,53 +437,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/Backup.xlsx
+++ b/src/Backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN\Desktop\biblioteca\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C15B30-3739-419A-9DDF-738C75D8E6DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1021E99-8C2A-43F8-B7C5-049600C50A19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{994D8DDC-EBF4-4D42-962A-0443776868B0}"/>
   </bookViews>
@@ -66,13 +66,13 @@
     <t>descripcion31</t>
   </si>
   <si>
-    <t>nombre12</t>
-  </si>
-  <si>
-    <t>nombre22</t>
-  </si>
-  <si>
-    <t>nombre32</t>
+    <t>nombre13</t>
+  </si>
+  <si>
+    <t>nombre23</t>
+  </si>
+  <si>
+    <t>nombre33</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/Backup.xlsx
+++ b/src/Backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN\Desktop\biblioteca\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1021E99-8C2A-43F8-B7C5-049600C50A19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4C9572-7CB5-4BA4-BB31-80FD8E744F44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{994D8DDC-EBF4-4D42-962A-0443776868B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{994D8DDC-EBF4-4D42-962A-0443776868B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>autor1</t>
   </si>
@@ -73,6 +73,78 @@
   </si>
   <si>
     <t>nombre33</t>
+  </si>
+  <si>
+    <t>nombre333</t>
+  </si>
+  <si>
+    <t>descripcion32</t>
+  </si>
+  <si>
+    <t>autor4</t>
+  </si>
+  <si>
+    <t>genero4</t>
+  </si>
+  <si>
+    <t>nombre334</t>
+  </si>
+  <si>
+    <t>descripcion33</t>
+  </si>
+  <si>
+    <t>autor5</t>
+  </si>
+  <si>
+    <t>genero5</t>
+  </si>
+  <si>
+    <t>nombre335</t>
+  </si>
+  <si>
+    <t>descripcion34</t>
+  </si>
+  <si>
+    <t>autor6</t>
+  </si>
+  <si>
+    <t>genero6</t>
+  </si>
+  <si>
+    <t>nombre336</t>
+  </si>
+  <si>
+    <t>descripcion35</t>
+  </si>
+  <si>
+    <t>autor7</t>
+  </si>
+  <si>
+    <t>genero7</t>
+  </si>
+  <si>
+    <t>nombre337</t>
+  </si>
+  <si>
+    <t>descripcion36</t>
+  </si>
+  <si>
+    <t>autor8</t>
+  </si>
+  <si>
+    <t>genero8</t>
+  </si>
+  <si>
+    <t>nombre338</t>
+  </si>
+  <si>
+    <t>descripcion37</t>
+  </si>
+  <si>
+    <t>autor9</t>
+  </si>
+  <si>
+    <t>genero9</t>
   </si>
 </sst>
 </file>
@@ -424,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800E4429-2554-44B8-9F66-C1DF68669CEF}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +558,108 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
